--- a/nw-project/data/最新舆情数据.xlsx
+++ b/nw-project/data/最新舆情数据.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,13 +405,15 @@
     <col min="1" max="1" width="30.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="50.83203125" customWidth="1"/>
-    <col min="5" max="5" width="100.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="50.83203125" customWidth="1"/>
-    <col min="7" max="7" width="50.83203125" customWidth="1"/>
+    <col min="7" max="7" width="100.83203125" customWidth="1"/>
     <col min="8" max="8" width="50.83203125" customWidth="1"/>
-    <col min="9" max="9" width="120.83203125" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="50.83203125" customWidth="1"/>
+    <col min="10" max="10" width="50.83203125" customWidth="1"/>
+    <col min="11" max="11" width="120.83203125" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -425,24 +427,30 @@
         <v>笔记时间</v>
       </c>
       <c r="D1" t="str">
+        <v>发表城市</v>
+      </c>
+      <c r="E1" t="str">
+        <v>IP属地</v>
+      </c>
+      <c r="F1" t="str">
         <v>笔记链接</v>
       </c>
-      <c r="E1" t="str">
+      <c r="G1" t="str">
         <v>笔记内容</v>
       </c>
-      <c r="F1" t="str">
+      <c r="H1" t="str">
         <v>图片链接</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>评论内容</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>ai分析</v>
       </c>
-      <c r="I1" t="str">
+      <c r="K1" t="str">
         <v>ai思考过程</v>
       </c>
-      <c r="J1" t="str">
+      <c r="L1" t="str">
         <v>关键词</v>
       </c>
     </row>
@@ -456,25 +464,25 @@
       <c r="C2" t="str">
         <v>2024-12-28</v>
       </c>
-      <c r="D2" t="str">
+      <c r="F2" t="str">
         <v>https://www.xiaohongshu.com/explore/676f50f5000000001402120b?xsec_token=ABRUsr5PWdmgUtfUnd-bbtWDfq2XV7-6LXrPI_Hwty1Dw=&amp;xsec_source=</v>
       </c>
-      <c r="E2" t="str">
+      <c r="G2" t="str">
         <v>有小伙伴了解深圳万科，研选家设计岗怎么样嘛，谢谢啦，求分享</v>
       </c>
-      <c r="F2" t="str">
+      <c r="H2" t="str">
         <v>https://sns-webpic-qc.xhscdn.com/202502221946/27524d5324804d9c6d39f8b6bba799b0/1040g2sg31bucs2ij08c05oag2frgkvd8ap78oa0!nd_dft_wlteh_webp_3</v>
       </c>
-      <c r="G2" t="str">
+      <c r="I2" t="str">
         <v>共 4 条评论小糖氏作者能否具体说说呢2024-12-31赞回复还我星冰乐别去，会被压榨2024-12-31赞1ZZOO怎么被压榨02-09湖北赞回复嗯恩嗯恩你去了不，咋样啊02-12湖北赞回复 - THE END -</v>
       </c>
-      <c r="H2" t="str">
-        <v>正面</v>
-      </c>
-      <c r="I2" t="str">
-        <v>分析过程出错，默认返回正面评价</v>
-      </c>
       <c r="J2" t="str">
+        <v>正面</v>
+      </c>
+      <c r="K2" t="str">
+        <v>分析过程出错，默认返回正面评价</v>
+      </c>
+      <c r="L2" t="str">
         <v>没有找到关键词</v>
       </c>
     </row>
@@ -488,25 +496,25 @@
       <c r="C3" t="str">
         <v>2024-12-24</v>
       </c>
-      <c r="D3" t="str">
+      <c r="F3" t="str">
         <v>https://www.xiaohongshu.com/explore/676a6f3d000000000b016e27?xsec_token=ABIx9g8v2xcNEjjH1vj0AiM5kcWizdFMdSeuuC4quLCf0=&amp;xsec_source=</v>
       </c>
-      <c r="E3" t="str">
+      <c r="G3" t="str">
         <v>首次装修，朋友推荐研选家，没有踩坑，业务员很专业，很省心，我们是精装交付房，只部分局改，拆了门，做了哑口套，改了阳台，效果很满意，以后有朋友需要装修首推研选家。 #研选家 #装修改造就选他 #装修</v>
       </c>
-      <c r="F3" t="str">
+      <c r="H3" t="str">
         <v>https://sns-webpic-qc.xhscdn.com/202502221946/4bb7877ea73f44c0740a24ed3e1136aa/1040g2sg31bpkaacagu8g5nhjmhbg8ak8i4sqn2g!nd_dft_wlteh_webp_3</v>
       </c>
-      <c r="G3" t="str">
+      <c r="I3" t="str">
         <v>共 2 条评论小透明这就不得不说在他们小区用研选家的好处了，可以占用走廊的公共面积，入户门外移增加一个3.4平玄关的面积，砸掉承重梁，扩大门洞，打掉承重墙扩大室内面积，打掉烟道扩大厨房面积，切掉飘窗增加卧室面积，反正只要你想，他就能实现01-20赞回复fxygr可是我遇到的研选家踩雷了01-05赞回复 - THE END -</v>
       </c>
-      <c r="H3" t="str">
-        <v>正面</v>
-      </c>
-      <c r="I3" t="str">
-        <v>分析过程出错，默认返回正面评价</v>
-      </c>
       <c r="J3" t="str">
+        <v>正面</v>
+      </c>
+      <c r="K3" t="str">
+        <v>分析过程出错，默认返回正面评价</v>
+      </c>
+      <c r="L3" t="str">
         <v>没有找到关键词</v>
       </c>
     </row>
@@ -520,25 +528,25 @@
       <c r="C4" t="str">
         <v>编辑于 2024-03-21</v>
       </c>
-      <c r="D4" t="str">
+      <c r="F4" t="str">
         <v>https://www.xiaohongshu.com/explore/65ee74f8000000000d00f7c3?xsec_token=AB2cNsdltmlxnKc_9M11hVR3Jjzi1h8dfQCTdTKpb-lMg=&amp;xsec_source=</v>
       </c>
-      <c r="E4" t="str">
+      <c r="G4" t="str">
         <v>💥郑重通知各位宝宝！ 好领导充分放权赋能给小运营！ ✅手握至高无上的权利我觉得总得干点什么！ ♥我有实力，我只宠粉♥ ✨公司nei 布资料16份，超10W字的装修秘籍 ✨我正（bu）大（xiao）光（心）明放地上❗❗❗ 宝子们💬💬T #装修干货 #装修流程 #装修知识 #装修预算 #装修工艺 #装修公司 #运营</v>
       </c>
-      <c r="F4" t="str">
+      <c r="H4" t="str">
         <v>https://sns-webpic-qc.xhscdn.com/202502221946/f3fc5bedfc6100b49bdea497e9cd919f/1040g0083106iavb9m03g5o398rr0bno9u1mtf18!nd_dft_wlteh_webp_3</v>
       </c>
-      <c r="G4" t="str">
+      <c r="I4" t="str">
         <v>共 13 条评论研选家作者感谢宝子们，粉丝106万了，但先别告诉我老板置顶评论2024-03-18赞6小红薯65606D95想认识认识那个卓越的人2024-03-21赞回复展开 5 条回复西西你还好吗？？哈哈求资料会不会很过分？2024-03-1111研选家作者不会，不管怎样我是站你们的2024-03-112回复卅我要煤气的和水电的2024-03-12赞1研选家作者安排安排2024-03-12赞回复XXLynn宝宝们，挖到宝了2024-03-11赞1研选家作者再晚领导就要发现我了2024-03-11赞回复 - THE END -</v>
       </c>
-      <c r="H4" t="str">
-        <v>正面</v>
-      </c>
-      <c r="I4" t="str">
-        <v>分析过程出错，默认返回正面评价</v>
-      </c>
       <c r="J4" t="str">
+        <v>正面</v>
+      </c>
+      <c r="K4" t="str">
+        <v>分析过程出错，默认返回正面评价</v>
+      </c>
+      <c r="L4" t="str">
         <v>没有找到关键词</v>
       </c>
     </row>
@@ -552,25 +560,25 @@
       <c r="C5" t="str">
         <v>2024-12-15</v>
       </c>
-      <c r="D5" t="str">
+      <c r="F5" t="str">
         <v>https://www.xiaohongshu.com/explore/675ec0d9000000000201436b?xsec_token=ABI1sokD7JJO3DikB8hHdtSs6eykIHVFQECwlhokX_dAU=&amp;xsec_source=</v>
       </c>
-      <c r="E5" t="str">
+      <c r="G5" t="str">
         <v>自从上次验收全屋瓷砖，然后发现全屋刮脚以后 没错，姐妹们，全屋刮脚， 就像什么呢，走在家里，不知道的以为你在打碟。 于是开始了，经典扯头发环节。 装修哪有不疯的呢 万科子一下跟我说，可以翘起来，一下说换人 ， 姐妹们，有个靠谱的项目经理真的很中药。 出事先演，结果是什么呢。纯纯放卟💨 人换没换我不知道。反正号称来了个180一天工费的专家瓦工，亲自操刀，下场贴砖，结果 那个转， 怎么说呢 小小一指甲盖的平方，我感觉我横跨了四级台阶。 从未，感觉人生如此轻松跨越阶级。 YOU no. 爱很漏 至于翘起来，调旁边的，在下我，又狠狠的想了一遍屁。哄人万科子是熟手的，干活是不会给你做的。 姐妹们，万科研选家， 狠狠必坑了 #装修人的日常 #装修公司怎么选 #装修小白 #装修是场修行 #我的家装笔记 #装修日记 #装修 #研选家 #万科 #装修日常</v>
       </c>
-      <c r="F5" t="str">
+      <c r="H5" t="str">
         <v/>
       </c>
-      <c r="G5" t="str">
+      <c r="I5" t="str">
         <v>共 1 条评论一只蛋挞这是不平吧2024-12-23赞回复 - THE END -</v>
       </c>
-      <c r="H5" t="str">
-        <v>正面</v>
-      </c>
-      <c r="I5" t="str">
-        <v>分析过程出错，默认返回正面评价</v>
-      </c>
       <c r="J5" t="str">
+        <v>正面</v>
+      </c>
+      <c r="K5" t="str">
+        <v>分析过程出错，默认返回正面评价</v>
+      </c>
+      <c r="L5" t="str">
         <v>没有找到关键词</v>
       </c>
     </row>
@@ -584,31 +592,235 @@
       <c r="C6" t="str">
         <v>编辑于 3 天前 广东</v>
       </c>
-      <c r="D6" t="str">
+      <c r="F6" t="str">
         <v>https://www.xiaohongshu.com/explore/67b48714000000002901aee5?xsec_token=ABSl-l8bzHTYckMmhNrE02apgFO9M5YqazvCyNF4Q2-i0=&amp;xsec_source=</v>
       </c>
-      <c r="E6" t="str">
+      <c r="G6" t="str">
         <v>🟥没有什么是一块地毯解决不了的，不管是新装修的房子还是想要换个环境却不愿大动干戈的老房子，选一张新地毯，空间整个焕然一新！🌟 🈶几个注意事项一定要记住—— ♦️不要满铺！大面积的地毯毕竟没有地板瓷砖更耐脏，易打扫，容易滋生螨虫，藏污纳垢。引发鼻炎等问题。 ♦️不要过小！客厅中央地毯长度尺寸至少是茶几长度*1.2。 ♦️材质注意选择，纯羊毛，长绒，布面的不好打理，容易脏污；亚麻等不能暴晒；塑胶底容易释放甲醛；混纺的比较推荐，价格不能太低，地毯的品质决定了空间的气质。 ♦️色彩和纹样依据家装风格来定，可以跳脱，但不能过于喧宾夺主！ 🔥如果你家有漂亮的地毯，欢迎评论区尽情凡尔赛！！ #治愈家的小毛病 #地毯推荐 #客厅装修 #客厅设计 #地毯怎么选 #室内设计 @薯队长 @装修薯</v>
       </c>
-      <c r="F6" t="str">
+      <c r="H6" t="str">
         <v>https://sns-webpic-qc.xhscdn.com/202502221946/3d59b0ee1cf2d9dffca3a7c830998f26/1040g2sg31e1vnfe210d05o398rr0bno98qp4s8g!nd_dft_wlteh_webp_3</v>
       </c>
-      <c r="G6" t="str">
+      <c r="I6" t="str">
         <v>这是一片荒地点击评论</v>
       </c>
-      <c r="H6" t="str">
-        <v>正面</v>
-      </c>
-      <c r="I6" t="str">
-        <v>分析过程出错，默认返回正面评价</v>
-      </c>
       <c r="J6" t="str">
+        <v>正面</v>
+      </c>
+      <c r="K6" t="str">
+        <v>分析过程出错，默认返回正面评价</v>
+      </c>
+      <c r="L6" t="str">
+        <v>没有找到关键词</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>万科研选家拖欠工资跑路了？</v>
+      </c>
+      <c r="B7" t="str">
+        <v>线条小狗</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2024-12-16</v>
+      </c>
+      <c r="F7" t="str">
+        <v>https://www.xiaohongshu.com/explore/675fb9070000000002034413?xsec_token=AB2LG44YbduDowe79MFQuDkruopKA1t9QoCZfGpvuaHKo=&amp;xsec_source=</v>
+      </c>
+      <c r="G7" t="str">
+        <v>今年年底已经跑路了几家装修装修公司了！！！姐妹们，研选家是不是跑路了。 装房子装了一年。 现在叫水电师傅，来装灯。 结果水电师傅，告诉我工资没发。牛逼，号称万科旗下装修的牛逼装修公司。 居然也会拖欠工人工资。然后工人因为拿不到工资，不干活。太难了，水电大哥。 有线人吗？，姐妹们，不对，供应商们， 万科有拖欠工程款，货款吗？ 工人师傅们，你们还能过好年吗？ 这年头还真是人渣不分男女，要套现跑路，跟什么公司，什么品牌都没半毛钱关系，要跑一样跑。 万科的业主们，看到研选家快跑！！！！ #装修公司跑路了 #装修公司跑路 #万科 #武汉万科 #研选家 #装修工人跑路 #装修日常 #装修 #装修日记</v>
+      </c>
+      <c r="H7" t="str">
+        <v>https://sns-webpic-qc.xhscdn.com/202502222201/680703e41dd6231352d5254214e7700c/1040g2sg31bf5ij6jnae05p5de1i7ol1hgds4cjg!nd_dft_wlteh_webp_3</v>
+      </c>
+      <c r="I7" t="str">
+        <v>共 18 条评论闲人谋事曾经我认准万科这个品牌，出于信任，我新家装修选择万科研选家，结果全屋定制做的全部都是打补丁，质量完全不过关，交付的产品都有缺漏，对处理问题态度冷暴力，踢皮球，我和家人流着眼泪在年三十面对破烂的烂尾交付过的这个年！问题反馈了十五天，万科研选家没有一个相关领导实地调查更谈不上解决问题的方案了！因为我们是老实人，就这样霸王式的和冷暴力我们消费者！我们被逼申诉无门！万科集团有担当的领导，你们不能这样欺负老百姓呀！02-12广东110线条小狗作者枯死，姐妹02-12湖北赞回复展开 9 条回复奶爸做家装哈哈，蛮多小区看到这个挂羊头卖狗肉的，跑了吗？2024-12-1613线条小狗作者钱都发不出来！！你说2024-12-16赞回复展开 2 条回复 （~㉨~） 你装修是一次性付全款还是分期款，你要是油工做完退场了还是没有结清尾款，水电工肯定不会给你装灯的，你这是公司装的还是个人装的？3 天前湖北赞1线条小狗作者这么说，公司只压水电工的钱，那水电工岂不是狗都不做3 天前湖北赞回复正先 律师事务所「装修增项和全屋定制都是坑！新式马扁.，动不动就让你付这个付那个，威胁不开工不售后，有踩坑糟心的找我，帮你退款，需要的戳dd！」7 天前广东1回复 - THE END -</v>
+      </c>
+      <c r="J7" t="str">
+        <v>正面</v>
+      </c>
+      <c r="K7" t="str">
+        <v>分析过程出错，默认返回正面评价</v>
+      </c>
+      <c r="L7" t="str">
+        <v>没有找到关键词</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>活动</v>
+      </c>
+      <c r="B8" t="str">
+        <v>小糖氏</v>
+      </c>
+      <c r="C8" t="str">
+        <v>2024-12-28</v>
+      </c>
+      <c r="F8" t="str">
+        <v>https://www.xiaohongshu.com/explore/676f50f5000000001402120b?xsec_token=ABRUsr5PWdmgUtfUnd-bbtWDfq2XV7-6LXrPI_Hwty1Dw=&amp;xsec_source=</v>
+      </c>
+      <c r="G8" t="str">
+        <v>有小伙伴了解深圳万科，研选家设计岗怎么样嘛，谢谢啦，求分享</v>
+      </c>
+      <c r="H8" t="str">
+        <v>https://sns-webpic-qc.xhscdn.com/202502222201/c171deefe2a0b8a345d68701199e29fe/1040g2sg31bucs2ij08c05oag2frgkvd8ap78oa0!nd_dft_wlteh_webp_3</v>
+      </c>
+      <c r="I8" t="str">
+        <v>共 4 条评论小糖氏作者能否具体说说呢2024-12-31赞回复还我星冰乐别去，会被压榨2024-12-31赞1ZZOO怎么被压榨02-09湖北赞回复嗯恩嗯恩你去了不，咋样啊02-12湖北赞回复 - THE END -</v>
+      </c>
+      <c r="J8" t="str">
+        <v>正面</v>
+      </c>
+      <c r="K8" t="str">
+        <v>分析过程出错，默认返回正面评价</v>
+      </c>
+      <c r="L8" t="str">
+        <v>没有找到关键词</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>卫生间翻新之后，停不下来了……</v>
+      </c>
+      <c r="B9" t="str">
+        <v>研选家</v>
+      </c>
+      <c r="C9" t="str">
+        <v>编辑于 昨天 23:35 广东</v>
+      </c>
+      <c r="F9" t="str">
+        <v>https://www.xiaohongshu.com/explore/67b899390000000029013e13?xsec_token=ABcM6SdDFDPiRhWhv7pGMksc2KT5VsVB3BBPYPr5rPqaA=&amp;xsec_source=</v>
+      </c>
+      <c r="G9" t="str">
+        <v>💦🌀用了很久的卫生间，想改头换面却不知道从哪儿下手…… ⛔自己弄不实际 ⛔请设计师施工队会不会太小题大做？仅仅一个卫生间，会好好做吗？ ✔️所有的问题，现在都有一键解决的办法了！从设计🔜拆除🔜装修🔜清运，不需要操一点心❗唯一的难题就是——那么多好看的卫生间，到底换成什么样呢？ ⭐研选家提供精选案例的同时，也接受个人定制，如果你有任何独特的想法，都请让我们来试试吧！ 🤜🤛 #治愈家的小毛病 #轻改造爸妈家 #旧房翻新 #卫生间装修 #卫生间 #老房翻新改造 #卫生间设计 #浴室装修灵感库 @薯队长</v>
+      </c>
+      <c r="H9" t="str">
+        <v>https://sns-webpic-qc.xhscdn.com/202502222217/269b59f8baddb7ffd3f1a66329b76892/1040g00831e5uub41gm605o398rr0bno9btpvlg8!nd_dft_wlteh_webp_3</v>
+      </c>
+      <c r="I9" t="str">
+        <v>这是一片荒地点击评论</v>
+      </c>
+      <c r="J9" t="str">
+        <v>正面</v>
+      </c>
+      <c r="K9" t="str">
+        <v>分析过程出错，默认返回正面评价</v>
+      </c>
+      <c r="L9" t="str">
+        <v>没有找到关键词</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>😎实习生的第一天 | 万物云研选家工作</v>
+      </c>
+      <c r="B10" t="str">
+        <v>猜猜</v>
+      </c>
+      <c r="C10" t="str">
+        <v>昨天 14:27 湖北</v>
+      </c>
+      <c r="F10" t="str">
+        <v>https://www.xiaohongshu.com/explore/67b81cd20000000006039f75?xsec_token=ABcM6SdDFDPiRhWhv7pGMksbCa6LEnlEcY1EwEAVzKv_E=&amp;xsec_source=</v>
+      </c>
+      <c r="G10" t="str">
+        <v>✨今天是我在万物云研选家实习的第一天🧐。其实昨天已经入职适应了半天工作模式啦，所以今天算是完完整整体验了一把这里的工作流程和状态😃。 🚄现在我还在学校住，学校在江夏区，而工作地点在江汉区，早九晚六，两个小时的通勤距离真的有点远😭。今天差点没赶上高铁，还好前面是一个消防员👨‍🚒，沾了他的光，才让我有惊无险地赶上了，嘿嘿，还挺幸运的😉。 🌟现在来说说我工作的体验吧💕。 👉第一点，这里的工作氛围超级好👍。这的工作位置都不是很固定的，有位置就可以坐，大家都各司其职，互不干扰🤗，偶尔也会有工作上的交流🧐。虽然大家认识的时间不长，但是给我的第一印象真的很不错呢😎。在这样的氛围里工作，感觉效率都会提高不少😜。 👉第二点就是同事之间的相处非常融洽呀🤝。这里完全不是那种只知道埋头苦干、很沉闷的氛围😒。而是很轻松很融洽，不懂就问，还经常能听到欢声笑语😄。大家就像一个温暖的大家庭一样，这让我这个实习生一点也不觉得拘束，很快就融入进去了呢🥰。 👉最后一点，这里的工作环境也很棒🤩。每个人都很用心地维护办公环境🧼。中午休息去上厕所的时候，我刚好碰到店长姐姐蹲在卫生间门口，用纸巾把地上的灰尘垃圾拢起来，再丢到垃圾桶里🧺。她还关心我会不会穿得有点少了，哈哈😄，其实是因为早上来不及，落下了外套，不过确实也还好啦，让人心里暖暖的，大家人都好好😉。 💪我真的很喜欢这里的工作环境和氛围呢，加油，希望能学到更多的东西，让自己变得更优秀💖。 #实习生 #万物云研选家 #工作体验 #实习第一天打卡</v>
+      </c>
+      <c r="H10" t="str">
+        <v>https://sns-webpic-qc.xhscdn.com/202502222217/f339c117b7ca20c119ee61d19e28539f/1040g00831e5fod5cgu6g5ookaavjotoa20ajmno!nd_dft_wlteh_webp_3</v>
+      </c>
+      <c r="I10" t="str">
+        <v>共 4 条评论哒哒哒加油💪，万物会有很多可以让你学习的地方，一定要好好学习成长顶起一片天。昨天 21:52广东赞1猜猜作者谢谢你的鼓励！生活处处是学问，我会努力成为能独当一面的人！今天 07:56湖北赞回复小红薯613E48C3加油 可爱的小伙伴！一起成长！昨天 21:57湖北赞1猜猜作者加油！✊今天 07:54湖北赞回复 - THE END -</v>
+      </c>
+      <c r="J10" t="str">
+        <v>正面</v>
+      </c>
+      <c r="K10" t="str">
+        <v>分析过程出错，默认返回正面评价</v>
+      </c>
+      <c r="L10" t="str">
+        <v>没有找到关键词</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>🎁宠粉抽奖｜猫王小王子OTR新年礼盒🎁</v>
+      </c>
+      <c r="B11" t="str">
+        <v>研选家</v>
+      </c>
+      <c r="C11" t="str">
+        <v>编辑于 02-02 广东</v>
+      </c>
+      <c r="D11" t="str">
+        <v>未知</v>
+      </c>
+      <c r="E11" t="str">
+        <v>广东</v>
+      </c>
+      <c r="F11" t="str">
+        <v>https://www.xiaohongshu.com/explore/679f7d7e000000002901f579?xsec_token=ABbSo12Qe7vFXBzMYCPrIwgqsTI1ny_BdSSKGNme1YiEc=&amp;xsec_source=</v>
+      </c>
+      <c r="G11" t="str">
+        <v>2025🍎，巳巳顺意，家家安康！ 希望新的一年，小研的家人们可以纵情高歌，所向披靡！更希望我们的祖国家家欢声笑语！🎊😁🥰 所以！新年第一次抽奖，小研要送出火红喜庆的【猫王音响小王子OTR+欢唱版双麦克风话话筒礼盒】🎙🎁，大家唱起来吧❗️ 🔥猫王新年特定礼盒内含： 复古格调音箱 精巧双麦克风 高级手提礼箱 🖐快来动动手指按下参与抽奖！ 📝参与方式：点击图片下方限时抽奖（+4️⃣） ⏰活动时间：2月2日-2月28日 🎉开奖时间：2月28日15:00😉 🀄了的宝子记得要在7天内填写收货信息哟～ 赶紧上车，不要开小差。 ⭐️ps：新的一年每月宠粉持续进行中，板凳坐好，更多惊喜来袭！ #宠粉福利 #抽奖 #0元抽奖 #粉丝福利 #音响 #猫王音响 @薯队长 @装修薯 #新年云祈愿 #新年礼物</v>
+      </c>
+      <c r="H11" t="str">
+        <v>https://sns-webpic-qc.xhscdn.com/202502222235/c30a6fd23f93b78ed5aa22e58d34b572/1040g00831ddea11dgm6g5o398rr0bno9bp84rf0!nd_dft_wlteh_webp_3</v>
+      </c>
+      <c r="I11" t="str">
+        <v>共 342 条评论🍁今天 18:48山东赞回复三点钟叫醒兔子111昨天 12:08上海赞回复罐头的朋友圈2025发发发呀昨天 00:07浙江赞回复-小羽时光一键4连 ，一键四连接接接！！！💰来(永久效有，无作副用）→💰来永有久效，无作副用）→💰来💰来（永久效有，无副作用）→感宇谢宙！谢感政f！感谢我信相我会变好，众生安乐！！！！！泼天的富贵 我来了 请宠幸我一次吧[ 飞吻R ]㊗希望好运连连可以揪中我！幸运之神宠我一次吧！希望锦鲤就是我🍀！㊙默念咒语:希望被揪🀄！希望被揪🀄！希望被揪🀄！（重要的事情说三遍）疯狂举手中~🙏拜托🙏快点看过来看看我这边′1 天前广东赞回复-小羽时光好运连连1 天前广东赞回复Mr．lateヾ我来啦 一键4连 ，一键四连接接接！！！💰来(永久效有，无作副用）→💰来永有久效，无作副用）→💰来💰来（永久效有，无副作用）→感宇谢宙！谢感政f！感谢我信相我会变好，众生安乐！！！！！泼天的富贵 我来了 请宠幸我一次吧㊗希望好运连连可以揪中我！幸运之神宠我一次吧！希望锦鲤就是我🍀！㊙默念咒语:希望被揪🀄！希望被揪🀄！希望被揪🀄！（重要的事情说三遍）疯狂举手中~🙏拜托🙏快点看过来看看我这3 天前广东赞回复桜桜我来啦 # 一键4连 ，一键四连接接接！！！💰来(永久效有，无作副用）→💰来永有久效，无作副用）→💰来💰来（永久效有，无副作用）→感宇谢宙！谢感政f！感谢我信相我会变好，众生安乐！！！！！泼天的富贵 我来了 请宠幸我一次吧㊗希望好运连连可以揪中我！幸运之神宠我一次吧！希望锦鲤就是我🍀！㊙默念咒语:希望被揪🀄！希望被揪🀄！希望被揪🀄！（重要的事情说三遍）疯狂举手中~🙏拜托🙏快点看过来看看我3 天前广东赞回复一个名字一键4连 ，一键四连接接接！！！💰来(永久效有，无作副用）→💰来永有久效，无作副用）→💰来💰来（永久效有，无副作用）→感宇谢宙！谢感政f！感谢我信相我会变好，众生安乐！！！！！泼天的富贵 我来了 请宠幸我一次吧[ 飞吻R ]㊗希望好运连连可以揪中我！幸运之神宠我一次吧！希望锦鲤就是我🍀！㊙默念咒语:希望被揪🀄！希望被揪🀄！希望被揪🀄！（重要的事情说三遍）疯狂举手中~🙏拜托🙏快点看过来看看我这边3 天前辽宁赞回复苹果的滋味已四连4 天前广西赞回复初音小贝蹲蹲好运4 天前广东赞回复</v>
+      </c>
+      <c r="J11" t="str">
+        <v>正面</v>
+      </c>
+      <c r="K11" t="str">
+        <v>分析过程出错，默认返回正面评价</v>
+      </c>
+      <c r="L11" t="str">
+        <v>没有找到关键词</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>研选家，我值得。</v>
+      </c>
+      <c r="B12" t="str">
+        <v>小鱼儿儿儿儿</v>
+      </c>
+      <c r="C12" t="str">
+        <v>编辑于 2024-02-26</v>
+      </c>
+      <c r="D12" t="str">
+        <v>未知</v>
+      </c>
+      <c r="E12" t="str">
+        <v>未知</v>
+      </c>
+      <c r="F12" t="str">
+        <v>https://www.xiaohongshu.com/explore/65d9bf6f000000000b00f250?xsec_token=ABdC2UsAepTevRd_wYuOGKsR_9QT0d9MJBHBkHFo7ILxc=&amp;xsec_source=</v>
+      </c>
+      <c r="G12" t="str">
+        <v>关于装修方面我对卫生间有以下建议： 1、卫生间的任何五金配件都尽量选择品牌的，这样能确保它不易生锈或者损耗。此外需要提醒一下，卫研选就是卫生间的地漏一定要防臭的，这与以后的居家舒适度密切相关。 2、不泡澡的话，就别在卫生间里装浴缸。且不说它占位置，对于大部分家庭来说，浴缸的宿命最后都是摆放在那里积灰尘，甚至是沦为杂物收纳区。 3、有条件的话，卫生间必须要做干湿分离。如果实在太小，就利用浴帘把卫生间分区。干湿不分离的话，不仅容易摔跤滑倒，卫生间的家具使用寿命也会大大缩短，很多卫浴用品很容易就会发霉，到处脏兮兮的。 4、记得在卫生间洗漱台和马桶边安装插座。这是为了日后方便安装智能镜柜和智能马桶而设的，毕竟是智能家居时代了嘛！ 5、卫生间在装修时，防水工程要做好，防水材料的品质也一定要好，这样才能永绝后患。地面铺贴瓷砖的时候，记得要留有坡度，这样才能确保卫生间的积水可以及时排入下水口，不向卫生间外流淌。 以上有些知识点借鉴了研选家的笔记，研选家是一家可以对老房进行装修升级改造的公司，专业安心，身边有不少朋友选择了研选家改造老房，效果还是很不错的。 #研选家家装好安心#研选家 #装修日记</v>
+      </c>
+      <c r="H12" t="str">
+        <v>https://sns-webpic-qc.xhscdn.com/202502222236/93991a025e5e835ad5ce91646fcde442/1040g2sg30vl371vtm6505ouvq3opiekveste1t8!nd_dft_wgth_webp_3</v>
+      </c>
+      <c r="I12" t="str">
+        <v>这是一片荒地点击评论</v>
+      </c>
+      <c r="J12" t="str">
+        <v>正面</v>
+      </c>
+      <c r="K12" t="str">
+        <v>分析过程出错，默认返回正面评价</v>
+      </c>
+      <c r="L12" t="str">
         <v>没有找到关键词</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/nw-project/data/最新舆情数据.xlsx
+++ b/nw-project/data/最新舆情数据.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -818,9 +818,617 @@
         <v>没有找到关键词</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>粉丝目标103万❗我只用了这一招让领导闭嘴</v>
+      </c>
+      <c r="B13" t="str">
+        <v>研选家</v>
+      </c>
+      <c r="C13" t="str">
+        <v>编辑于 2024-03-21</v>
+      </c>
+      <c r="D13" t="str">
+        <v>未知</v>
+      </c>
+      <c r="E13" t="str">
+        <v>广东</v>
+      </c>
+      <c r="F13" t="str">
+        <v>https://www.xiaohongshu.com/explore/65ee74f8000000000d00f7c3?xsec_token=AB2cNsdltmlxnKc_9M11hVR2of0ItNV6ImvftC1lIiZ74=&amp;xsec_source=</v>
+      </c>
+      <c r="G13" t="str">
+        <v>💥郑重通知各位宝宝！ 好领导充分放权赋能给小运营！ ✅手握至高无上的权利我觉得总得干点什么！ ♥我有实力，我只宠粉♥ ✨公司nei 布资料16份，超10W字的装修秘籍 ✨我正（bu）大（xiao）光（心）明放地上❗❗❗ 宝子们💬💬T #装修干货 #装修流程 #装修知识 #装修预算 #装修工艺 #装修公司 #运营</v>
+      </c>
+      <c r="H13" t="str">
+        <v>https://sns-webpic-qc.xhscdn.com/202502231944/28b67d3fb650ff5a14e97b87e1c33227/1040g0083106iavb9m03g5o398rr0bno9u1mtf18!nd_dft_wlteh_webp_3</v>
+      </c>
+      <c r="I13" t="str">
+        <v>共 13 条评论研选家作者感谢宝子们，粉丝106万了，但先别告诉我老板置顶评论2024-03-18赞6小红薯65606D95想认识认识那个卓越的人2024-03-21赞回复展开 5 条回复西西你还好吗？？哈哈求资料会不会很过分？2024-03-1111研选家作者不会，不管怎样我是站你们的2024-03-112回复卅我要煤气的和水电的2024-03-12赞1研选家作者安排安排2024-03-12赞回复XXLynn宝宝们，挖到宝了2024-03-11赞1研选家作者再晚领导就要发现我了2024-03-11赞回复 - THE END -</v>
+      </c>
+      <c r="J13" t="str">
+        <v>中性</v>
+      </c>
+      <c r="K13" t="str">
+        <v>分析过程出错，默认返回中性评价</v>
+      </c>
+      <c r="L13" t="str">
+        <v>没有找到关键词</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>研选家—正确的选择</v>
+      </c>
+      <c r="B14" t="str">
+        <v>风中奇缘</v>
+      </c>
+      <c r="C14" t="str">
+        <v>编辑于 2024-11-02</v>
+      </c>
+      <c r="D14" t="str">
+        <v>未知</v>
+      </c>
+      <c r="E14" t="str">
+        <v>未知</v>
+      </c>
+      <c r="F14" t="str">
+        <v>https://www.xiaohongshu.com/explore/6725bc09000000003c01e1c8?xsec_token=AB6TNH_q7ohTlDzBpX5G5YrDuYwbR_T4PkQAvpDCfz69U=&amp;xsec_source=</v>
+      </c>
+      <c r="G14" t="str">
+        <v>我们家之前厨房很难用，被老年人嫌弃。经朋友们推荐选择了研选家。装完后谈谈自己的感受：1.装修公司规范，管理很到位，工作人员从前期沟通到施工中及施工完工，都很有耐心、友好；2.装修材质保证，完工效果好；3.整个过程让人很放心，不焦虑。#研选家 #装修改造就选他#装修</v>
+      </c>
+      <c r="H14" t="str">
+        <v>https://sns-webpic-qc.xhscdn.com/202502231945/42315e3caf87c7bc460c0bcd500f3ba6/1040g2sg319mhe98h7g8g5oseuh1nrourbbpk5v8!nd_dft_wgth_webp_3</v>
+      </c>
+      <c r="I14" t="str">
+        <v>这是一片荒地点击评论</v>
+      </c>
+      <c r="J14" t="str">
+        <v>中性</v>
+      </c>
+      <c r="K14" t="str">
+        <v>分析过程出错，默认返回中性评价</v>
+      </c>
+      <c r="L14" t="str">
+        <v>没有找到关键词</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>万科研选家到底怎么样</v>
+      </c>
+      <c r="B15" t="str">
+        <v>线条小狗</v>
+      </c>
+      <c r="C15" t="str">
+        <v>2024-12-26</v>
+      </c>
+      <c r="D15" t="str">
+        <v>未知</v>
+      </c>
+      <c r="E15" t="str">
+        <v>湖北</v>
+      </c>
+      <c r="F15" t="str">
+        <v>https://www.xiaohongshu.com/explore/676cd0f9000000000900ebe4?xsec_token=ABoZQp8D-Y8Ko4uypximeesYPLG3K-nr55VZxubEswTJw=&amp;xsec_source=</v>
+      </c>
+      <c r="G15" t="str">
+        <v>宝子们集合！！！ 这几天后台，私信炸了，越来越多和我一样受伤的宝子们的遭遇，真是离谱的千奇百怪 找了两个特别离谱的，大家自行观看。 真的很心疼万科业主， 被自己的万科物业卖到离谱的万科装修研选家 已经上船的宝子们，真的要打起12分的精神 该盯紧的，赶紧锁死， 别像我们这样，想后悔都来不及。 #装修 #我为消费者发声 #装修日记 #维护自己的利益 #保护消费者 #无良商家必须严惩 #没有金刚钻别揽瓷器活 #物种多样性鉴赏 #研选家 #万科</v>
+      </c>
+      <c r="H15" t="str">
+        <v>https://sns-webpic-qc.xhscdn.com/202502231945/381127abe996a5e40bb9456f5254ec5a/1040g2sg31bruo44bgm805p5de1i7ol1h5molk60!nd_dft_wgth_webp_3</v>
+      </c>
+      <c r="I15" t="str">
+        <v>共 10 条评论奶爸做家装叫研选的，美居的都快闪，一群打着KFS，WY背书的草台班子2024-12-2812线条小狗作者我看了都怕2024-12-28赞回复展开 1 条回复墨韵书画特别是上海研选家装修公司，都啃爹，01-06赞1线条小狗作者咋了01-06赞回复fxygr千万避雷，看下我的砌墙图你就明白了01-05赞1线条小狗作者太离谱了01-05赞回复wingwingwing666避雷 打去总部投诉吧01-141回复墨韵书画全网的宝子们，万科研选家装修公司就是坑人的大骗子，不仅坑客户，还坑工长，大家注意，全网转发，曝光他们丑恶嘴脸01-06赞1线条小狗作者细说电够01-06赞回复 - THE END -</v>
+      </c>
+      <c r="J15" t="str">
+        <v>中性</v>
+      </c>
+      <c r="K15" t="str">
+        <v>分析过程出错，默认返回中性评价</v>
+      </c>
+      <c r="L15" t="str">
+        <v>没有找到关键词</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>卫生间翻新之后，停不下来了……</v>
+      </c>
+      <c r="B16" t="str">
+        <v>研选家</v>
+      </c>
+      <c r="C16" t="str">
+        <v>编辑于 1 天前 广东</v>
+      </c>
+      <c r="D16" t="str">
+        <v>天前</v>
+      </c>
+      <c r="E16" t="str">
+        <v>广东</v>
+      </c>
+      <c r="F16" t="str">
+        <v>https://www.xiaohongshu.com/explore/67b899390000000029013e13?xsec_token=ABcM6SdDFDPiRhWhv7pGMksa_Z4bk-2dppQbQbvi_Y1EE=&amp;xsec_source=</v>
+      </c>
+      <c r="G16" t="str">
+        <v>💦🌀用了很久的卫生间，想改头换面却不知道从哪儿下手…… ⛔自己弄不实际 ⛔请设计师施工队会不会太小题大做？仅仅一个卫生间，会好好做吗？ ✔️所有的问题，现在都有一键解决的办法了！从设计🔜拆除🔜装修🔜清运，不需要操一点心❗唯一的难题就是——那么多好看的卫生间，到底换成什么样呢？ ⭐研选家提供精选案例的同时，也接受个人定制，如果你有任何独特的想法，都请让我们来试试吧！ 🤜🤛 #治愈家的小毛病 #轻改造爸妈家 #旧房翻新 #卫生间装修 #卫生间 #老房翻新改造 #卫生间设计 #浴室装修灵感库 @薯队长</v>
+      </c>
+      <c r="H16" t="str">
+        <v>https://sns-webpic-qc.xhscdn.com/202502231945/9bb667a6379fc7f2f04f1de022afa29b/1040g00831e5uub41gm605o398rr0bno9btpvlg8!nd_dft_wlteh_webp_3</v>
+      </c>
+      <c r="I16" t="str">
+        <v>这是一片荒地点击评论</v>
+      </c>
+      <c r="J16" t="str">
+        <v>中性</v>
+      </c>
+      <c r="K16" t="str">
+        <v>分析过程出错，默认返回中性评价</v>
+      </c>
+      <c r="L16" t="str">
+        <v>没有找到关键词</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>研选家，我值得。</v>
+      </c>
+      <c r="B17" t="str">
+        <v>小鱼儿儿儿儿</v>
+      </c>
+      <c r="C17" t="str">
+        <v>编辑于 2024-02-26</v>
+      </c>
+      <c r="D17" t="str">
+        <v>未知</v>
+      </c>
+      <c r="E17" t="str">
+        <v>未知</v>
+      </c>
+      <c r="F17" t="str">
+        <v>https://www.xiaohongshu.com/explore/65d9bf6f000000000b00f250?xsec_token=ABdC2UsAepTevRd_wYuOGKsc-uwMJkd-XTnz4cA1D4G1w=&amp;xsec_source=</v>
+      </c>
+      <c r="G17" t="str">
+        <v>关于装修方面我对卫生间有以下建议： 1、卫生间的任何五金配件都尽量选择品牌的，这样能确保它不易生锈或者损耗。此外需要提醒一下，卫研选就是卫生间的地漏一定要防臭的，这与以后的居家舒适度密切相关。 2、不泡澡的话，就别在卫生间里装浴缸。且不说它占位置，对于大部分家庭来说，浴缸的宿命最后都是摆放在那里积灰尘，甚至是沦为杂物收纳区。 3、有条件的话，卫生间必须要做干湿分离。如果实在太小，就利用浴帘把卫生间分区。干湿不分离的话，不仅容易摔跤滑倒，卫生间的家具使用寿命也会大大缩短，很多卫浴用品很容易就会发霉，到处脏兮兮的。 4、记得在卫生间洗漱台和马桶边安装插座。这是为了日后方便安装智能镜柜和智能马桶而设的，毕竟是智能家居时代了嘛！ 5、卫生间在装修时，防水工程要做好，防水材料的品质也一定要好，这样才能永绝后患。地面铺贴瓷砖的时候，记得要留有坡度，这样才能确保卫生间的积水可以及时排入下水口，不向卫生间外流淌。 以上有些知识点借鉴了研选家的笔记，研选家是一家可以对老房进行装修升级改造的公司，专业安心，身边有不少朋友选择了研选家改造老房，效果还是很不错的。 #研选家家装好安心#研选家 #装修日记</v>
+      </c>
+      <c r="H17" t="str">
+        <v>https://sns-webpic-qc.xhscdn.com/202502231949/3c1f469af8cc673495e905ebc6c6888a/1040g2sg30vl371vtm6505ouvq3opiekveste1t8!nd_dft_wgth_webp_3</v>
+      </c>
+      <c r="I17" t="str">
+        <v>这是一片荒地点击评论</v>
+      </c>
+      <c r="J17" t="str">
+        <v>中性</v>
+      </c>
+      <c r="K17" t="str">
+        <v>分析过程出错，默认返回中性评价</v>
+      </c>
+      <c r="L17" t="str">
+        <v>没有找到关键词</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>🎁宠粉抽奖｜猫王小王子OTR新年礼盒🎁</v>
+      </c>
+      <c r="B18" t="str">
+        <v>研选家</v>
+      </c>
+      <c r="C18" t="str">
+        <v>编辑于 02-02 广东</v>
+      </c>
+      <c r="D18" t="str">
+        <v>广东</v>
+      </c>
+      <c r="E18" t="str">
+        <v>广东</v>
+      </c>
+      <c r="F18" t="str">
+        <v>https://www.xiaohongshu.com/explore/679f7d7e000000002901f579?xsec_token=ABbSo12Qe7vFXBzMYCPrIwgqyqNfH-LM4MHUSE0NAt_0Q=&amp;xsec_source=</v>
+      </c>
+      <c r="G18" t="str">
+        <v>2025🍎，巳巳顺意，家家安康！ 希望新的一年，小研的家人们可以纵情高歌，所向披靡！更希望我们的祖国家家欢声笑语！🎊😁🥰 所以！新年第一次抽奖，小研要送出火红喜庆的【猫王音响小王子OTR+欢唱版双麦克风话话筒礼盒】🎙🎁，大家唱起来吧❗️ 🔥猫王新年特定礼盒内含： 复古格调音箱 精巧双麦克风 高级手提礼箱 🖐快来动动手指按下参与抽奖！ 📝参与方式：点击图片下方限时抽奖（+4️⃣） ⏰活动时间：2月2日-2月28日 🎉开奖时间：2月28日15:00😉 🀄了的宝子记得要在7天内填写收货信息哟～ 赶紧上车，不要开小差。 ⭐️ps：新的一年每月宠粉持续进行中，板凳坐好，更多惊喜来袭！ #宠粉福利 #抽奖 #0元抽奖 #粉丝福利 #音响 #猫王音响 @薯队长 @装修薯 #新年云祈愿 #新年礼物</v>
+      </c>
+      <c r="H18" t="str">
+        <v>https://sns-webpic-qc.xhscdn.com/202502231949/8fdc09802f2dded109f6312566b20eca/1040g00831ddea11dgm6g5o398rr0bno9bp84rf0!nd_dft_wlteh_webp_3</v>
+      </c>
+      <c r="I18" t="str">
+        <v>共 342 条评论🍁昨天 18:48山东赞回复三点钟叫醒兔子1112 天前上海赞回复罐头的朋友圈2025发发发呀2 天前浙江赞回复-小羽时光一键4连 ，一键四连接接接！！！💰来(永久效有，无作副用）→💰来永有久效，无作副用）→💰来💰来（永久效有，无副作用）→感宇谢宙！谢感政f！感谢我信相我会变好，众生安乐！！！！！泼天的富贵 我来了 请宠幸我一次吧[ 飞吻R ]㊗希望好运连连可以揪中我！幸运之神宠我一次吧！希望锦鲤就是我🍀！㊙默念咒语:希望被揪🀄！希望被揪🀄！希望被揪🀄！（重要的事情说三遍）疯狂举手中~🙏拜托🙏快点看过来看看我这边′2 天前广东赞回复-小羽时光好运连连2 天前广东赞回复Mr．lateヾ我来啦 一键4连 ，一键四连接接接！！！💰来(永久效有，无作副用）→💰来永有久效，无作副用）→💰来💰来（永久效有，无副作用）→感宇谢宙！谢感政f！感谢我信相我会变好，众生安乐！！！！！泼天的富贵 我来了 请宠幸我一次吧㊗希望好运连连可以揪中我！幸运之神宠我一次吧！希望锦鲤就是我🍀！㊙默念咒语:希望被揪🀄！希望被揪🀄！希望被揪🀄！（重要的事情说三遍）疯狂举手中~🙏拜托🙏快点看过来看看我这3 天前广东赞回复桜桜我来啦 # 一键4连 ，一键四连接接接！！！💰来(永久效有，无作副用）→💰来永有久效，无作副用）→💰来💰来（永久效有，无副作用）→感宇谢宙！谢感政f！感谢我信相我会变好，众生安乐！！！！！泼天的富贵 我来了 请宠幸我一次吧㊗希望好运连连可以揪中我！幸运之神宠我一次吧！希望锦鲤就是我🍀！㊙默念咒语:希望被揪🀄！希望被揪🀄！希望被揪🀄！（重要的事情说三遍）疯狂举手中~🙏拜托🙏快点看过来看看我3 天前广东赞回复一个名字一键4连 ，一键四连接接接！！！💰来(永久效有，无作副用）→💰来永有久效，无作副用）→💰来💰来（永久效有，无副作用）→感宇谢宙！谢感政f！感谢我信相我会变好，众生安乐！！！！！泼天的富贵 我来了 请宠幸我一次吧[ 飞吻R ]㊗希望好运连连可以揪中我！幸运之神宠我一次吧！希望锦鲤就是我🍀！㊙默念咒语:希望被揪🀄！希望被揪🀄！希望被揪🀄！（重要的事情说三遍）疯狂举手中~🙏拜托🙏快点看过来看看我这边4 天前辽宁赞回复苹果的滋味已四连4 天前广西赞回复初音小贝蹲蹲好运5 天前广东赞回复</v>
+      </c>
+      <c r="J18" t="str">
+        <v>中性</v>
+      </c>
+      <c r="K18" t="str">
+        <v>分析过程出错，默认返回中性评价</v>
+      </c>
+      <c r="L18" t="str">
+        <v>没有找到关键词</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>万科研选家到底怎么样</v>
+      </c>
+      <c r="B19" t="str">
+        <v>线条小狗</v>
+      </c>
+      <c r="C19" t="str">
+        <v>2024-12-26</v>
+      </c>
+      <c r="D19" t="str">
+        <v>未知</v>
+      </c>
+      <c r="E19" t="str">
+        <v>湖北</v>
+      </c>
+      <c r="F19" t="str">
+        <v>https://www.xiaohongshu.com/explore/676cd0f9000000000900ebe4?xsec_token=ABoZQp8D-Y8Ko4uypximeesYPLG3K-nr55VZxubEswTJw=&amp;xsec_source=</v>
+      </c>
+      <c r="G19" t="str">
+        <v>宝子们集合！！！ 这几天后台，私信炸了，越来越多和我一样受伤的宝子们的遭遇，真是离谱的千奇百怪 找了两个特别离谱的，大家自行观看。 真的很心疼万科业主， 被自己的万科物业卖到离谱的万科装修研选家 已经上船的宝子们，真的要打起12分的精神 该盯紧的，赶紧锁死， 别像我们这样，想后悔都来不及。 #装修 #我为消费者发声 #装修日记 #维护自己的利益 #保护消费者 #无良商家必须严惩 #没有金刚钻别揽瓷器活 #物种多样性鉴赏 #研选家 #万科</v>
+      </c>
+      <c r="H19" t="str">
+        <v>https://sns-webpic-qc.xhscdn.com/202502231950/e0e62ffe06ca74387aaf44665bfa5165/1040g2sg31bruo44bgm805p5de1i7ol1h5molk60!nd_dft_wgth_webp_3</v>
+      </c>
+      <c r="I19" t="str">
+        <v>共 10 条评论奶爸做家装叫研选的，美居的都快闪，一群打着KFS，WY背书的草台班子2024-12-2812线条小狗作者我看了都怕2024-12-28赞回复展开 1 条回复墨韵书画特别是上海研选家装修公司，都啃爹，01-06赞1线条小狗作者咋了01-06赞回复fxygr千万避雷，看下我的砌墙图你就明白了01-05赞1线条小狗作者太离谱了01-05赞回复wingwingwing666避雷 打去总部投诉吧01-141回复墨韵书画全网的宝子们，万科研选家装修公司就是坑人的大骗子，不仅坑客户，还坑工长，大家注意，全网转发，曝光他们丑恶嘴脸01-06赞1线条小狗作者细说电够01-06赞回复 - THE END -</v>
+      </c>
+      <c r="J19" t="str">
+        <v>中性</v>
+      </c>
+      <c r="K19" t="str">
+        <v>分析过程出错，默认返回中性评价</v>
+      </c>
+      <c r="L19" t="str">
+        <v>没有找到关键词</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>卫生间翻新之后，停不下来了……</v>
+      </c>
+      <c r="B20" t="str">
+        <v>研选家</v>
+      </c>
+      <c r="C20" t="str">
+        <v>编辑于 1 天前 广东</v>
+      </c>
+      <c r="D20" t="str">
+        <v>天前</v>
+      </c>
+      <c r="E20" t="str">
+        <v>广东</v>
+      </c>
+      <c r="F20" t="str">
+        <v>https://www.xiaohongshu.com/explore/67b899390000000029013e13?xsec_token=ABcM6SdDFDPiRhWhv7pGMksa_Z4bk-2dppQbQbvi_Y1EE=&amp;xsec_source=</v>
+      </c>
+      <c r="G20" t="str">
+        <v>💦🌀用了很久的卫生间，想改头换面却不知道从哪儿下手…… ⛔自己弄不实际 ⛔请设计师施工队会不会太小题大做？仅仅一个卫生间，会好好做吗？ ✔️所有的问题，现在都有一键解决的办法了！从设计🔜拆除🔜装修🔜清运，不需要操一点心❗唯一的难题就是——那么多好看的卫生间，到底换成什么样呢？ ⭐研选家提供精选案例的同时，也接受个人定制，如果你有任何独特的想法，都请让我们来试试吧！ 🤜🤛 #治愈家的小毛病 #轻改造爸妈家 #旧房翻新 #卫生间装修 #卫生间 #老房翻新改造 #卫生间设计 #浴室装修灵感库 @薯队长</v>
+      </c>
+      <c r="H20" t="str">
+        <v>https://sns-webpic-qc.xhscdn.com/202502231950/eb8dc7716c27df26a808281544275982/1040g00831e5uub41gm605o398rr0bno9btpvlg8!nd_dft_wlteh_webp_3</v>
+      </c>
+      <c r="I20" t="str">
+        <v>这是一片荒地点击评论</v>
+      </c>
+      <c r="J20" t="str">
+        <v>中性</v>
+      </c>
+      <c r="K20" t="str">
+        <v>分析过程出错，默认返回中性评价</v>
+      </c>
+      <c r="L20" t="str">
+        <v>没有找到关键词</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>万科研选家到底怎么样</v>
+      </c>
+      <c r="B21" t="str">
+        <v>线条小狗</v>
+      </c>
+      <c r="C21" t="str">
+        <v>2024-12-26</v>
+      </c>
+      <c r="D21" t="str">
+        <v>未知</v>
+      </c>
+      <c r="E21" t="str">
+        <v>湖北</v>
+      </c>
+      <c r="F21" t="str">
+        <v>https://www.xiaohongshu.com/explore/676cd0f9000000000900ebe4?xsec_token=ABoZQp8D-Y8Ko4uypximeesYPLG3K-nr55VZxubEswTJw=&amp;xsec_source=</v>
+      </c>
+      <c r="G21" t="str">
+        <v>宝子们集合！！！ 这几天后台，私信炸了，越来越多和我一样受伤的宝子们的遭遇，真是离谱的千奇百怪 找了两个特别离谱的，大家自行观看。 真的很心疼万科业主， 被自己的万科物业卖到离谱的万科装修研选家 已经上船的宝子们，真的要打起12分的精神 该盯紧的，赶紧锁死， 别像我们这样，想后悔都来不及。 #装修 #我为消费者发声 #装修日记 #维护自己的利益 #保护消费者 #无良商家必须严惩 #没有金刚钻别揽瓷器活 #物种多样性鉴赏 #研选家 #万科</v>
+      </c>
+      <c r="H21" t="str">
+        <v>https://sns-webpic-qc.xhscdn.com/202502231954/b6f5589de77bc4146ce2dea460d684d2/1040g2sg31bruo44bgm805p5de1i7ol1h5molk60!nd_dft_wgth_webp_3</v>
+      </c>
+      <c r="I21" t="str">
+        <v>共 10 条评论奶爸做家装叫研选的，美居的都快闪，一群打着KFS，WY背书的草台班子2024-12-2812线条小狗作者我看了都怕2024-12-28赞回复展开 1 条回复墨韵书画特别是上海研选家装修公司，都啃爹，01-06赞1线条小狗作者咋了01-06赞回复fxygr千万避雷，看下我的砌墙图你就明白了01-05赞1线条小狗作者太离谱了01-05赞回复wingwingwing666避雷 打去总部投诉吧01-141回复墨韵书画全网的宝子们，万科研选家装修公司就是坑人的大骗子，不仅坑客户，还坑工长，大家注意，全网转发，曝光他们丑恶嘴脸01-06赞1线条小狗作者细说电够01-06赞回复 - THE END -</v>
+      </c>
+      <c r="J21" t="str">
+        <v>中性</v>
+      </c>
+      <c r="K21" t="str">
+        <v>分析过程出错，默认返回中性评价</v>
+      </c>
+      <c r="L21" t="str">
+        <v>没有找到关键词</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>活动</v>
+      </c>
+      <c r="B22" t="str">
+        <v>小糖氏</v>
+      </c>
+      <c r="C22" t="str">
+        <v>2024-12-28</v>
+      </c>
+      <c r="D22" t="str">
+        <v>未知</v>
+      </c>
+      <c r="E22" t="str">
+        <v>福建</v>
+      </c>
+      <c r="F22" t="str">
+        <v>https://www.xiaohongshu.com/explore/676f50f5000000001402120b?xsec_token=ABRUsr5PWdmgUtfUnd-bbtWOeMSPRrMPGeEK5Aqo9E3JE=&amp;xsec_source=</v>
+      </c>
+      <c r="G22" t="str">
+        <v>有小伙伴了解深圳万科，研选家设计岗怎么样嘛，谢谢啦，求分享</v>
+      </c>
+      <c r="H22" t="str">
+        <v>https://sns-webpic-qc.xhscdn.com/202502231955/37e5622ddb1981fa00f812a7c566bbbb/1040g2sg31bucs2ij08c05oag2frgkvd8ap78oa0!nd_dft_wlteh_webp_3</v>
+      </c>
+      <c r="I22" t="str">
+        <v>共 4 条评论小糖氏作者能否具体说说呢2024-12-31赞回复还我星冰乐别去，会被压榨2024-12-31赞1ZZOO怎么被压榨02-09湖北赞回复嗯恩嗯恩你去了不，咋样啊02-12湖北赞回复 - THE END -</v>
+      </c>
+      <c r="J22" t="str">
+        <v>中性</v>
+      </c>
+      <c r="K22" t="str">
+        <v>分析过程出错，默认返回中性评价</v>
+      </c>
+      <c r="L22" t="str">
+        <v>没有找到关键词</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>卫生间翻新之后，停不下来了……</v>
+      </c>
+      <c r="B23" t="str">
+        <v>研选家</v>
+      </c>
+      <c r="C23" t="str">
+        <v>编辑于 1 天前 广东</v>
+      </c>
+      <c r="D23" t="str">
+        <v>天前</v>
+      </c>
+      <c r="E23" t="str">
+        <v>广东</v>
+      </c>
+      <c r="F23" t="str">
+        <v>https://www.xiaohongshu.com/explore/67b899390000000029013e13?xsec_token=ABcM6SdDFDPiRhWhv7pGMksa_Z4bk-2dppQbQbvi_Y1EE=&amp;xsec_source=</v>
+      </c>
+      <c r="G23" t="str">
+        <v>💦🌀用了很久的卫生间，想改头换面却不知道从哪儿下手…… ⛔自己弄不实际 ⛔请设计师施工队会不会太小题大做？仅仅一个卫生间，会好好做吗？ ✔️所有的问题，现在都有一键解决的办法了！从设计🔜拆除🔜装修🔜清运，不需要操一点心❗唯一的难题就是——那么多好看的卫生间，到底换成什么样呢？ ⭐研选家提供精选案例的同时，也接受个人定制，如果你有任何独特的想法，都请让我们来试试吧！ 🤜🤛 #治愈家的小毛病 #轻改造爸妈家 #旧房翻新 #卫生间装修 #卫生间 #老房翻新改造 #卫生间设计 #浴室装修灵感库 @薯队长</v>
+      </c>
+      <c r="H23" t="str">
+        <v>https://sns-webpic-qc.xhscdn.com/202502231955/2d15d639c9bc859cd37f5b3647c93e51/1040g00831e5uub41gm605o398rr0bno9btpvlg8!nd_dft_wlteh_webp_3</v>
+      </c>
+      <c r="I23" t="str">
+        <v>这是一片荒地点击评论</v>
+      </c>
+      <c r="J23" t="str">
+        <v>中性</v>
+      </c>
+      <c r="K23" t="str">
+        <v>分析过程出错，默认返回中性评价</v>
+      </c>
+      <c r="L23" t="str">
+        <v>没有找到关键词</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>原来万科物业也做家装呀！</v>
+      </c>
+      <c r="B24" t="str">
+        <v>嘉嘉应子</v>
+      </c>
+      <c r="C24" t="str">
+        <v>01-10</v>
+      </c>
+      <c r="D24" t="str">
+        <v>未知</v>
+      </c>
+      <c r="E24" t="str">
+        <v>未知</v>
+      </c>
+      <c r="F24" t="str">
+        <v>https://www.xiaohongshu.com/explore/678100de00000000200289bc?xsec_token=AB9c6FUNufywUAj0DB_kkTM-SEv1JSTB2CPkl25InpWMo=&amp;xsec_source=</v>
+      </c>
+      <c r="G24" t="str">
+        <v>作为5年的万科业主，现在才知道原来万科物业也有做设计装修的，叫做研选家！ 早知道就不找外面的装修公司了，刚装完就倒闭了，万科物业的起码物业会一直存在，不用担心售后。 有业主朋友装修过吗？</v>
+      </c>
+      <c r="H24" t="str">
+        <v>https://sns-webpic-qc.xhscdn.com/202502231955/8dd5902eac430a637e083218a0722985/notes_pre_post/1040g3k831cfl8jlhh69g4bur6tn8m24o1osdbb0!nd_dft_wlteh_webp_3</v>
+      </c>
+      <c r="I24" t="str">
+        <v>共 8 条评论小透明这就不得不说在他们小区用研选家的好处了，可以占用走廊的公共面积，入户门外移增加一个3.4平玄关的面积，砸掉承重梁，扩大门洞，打掉承重墙扩大室内面积，打掉烟道扩大厨房面积，切掉飘窗增加卧室面积，反正只要你想，他就能实现01-20赞2每天都是周六打掉承重墙？？？02-15广东赞回复展开 1 条回复Winner你应该庆幸你不知道01-15赞回复春晓2019年找他们装修的，五年后的售后还在做，还是免费。很不错。那会他们只给自己物业的业主装修房子，现在应该是包括非物业的房子装修也做。01-151回复YWQ做的东西都可以直接拆掉换新的，太垃圾了，不想脑溢血和心梗还是换换吧！01-11赞回复打工人这一点还是可以信任的，签合同。售后问题不用担心01-10赞回复🐟别了，到时候出现问题，就会说和物业不搭噶，叫你找谁装修的去找谁01-10赞回复 - THE END -</v>
+      </c>
+      <c r="J24" t="str">
+        <v>中性</v>
+      </c>
+      <c r="K24" t="str">
+        <v>分析过程出错，默认返回中性评价</v>
+      </c>
+      <c r="L24" t="str">
+        <v>没有找到关键词</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>万科研选家拖欠工资跑路了？</v>
+      </c>
+      <c r="B25" t="str">
+        <v>线条小狗</v>
+      </c>
+      <c r="C25" t="str">
+        <v>2024-12-16</v>
+      </c>
+      <c r="D25" t="str">
+        <v>未知</v>
+      </c>
+      <c r="E25" t="str">
+        <v>湖北</v>
+      </c>
+      <c r="F25" t="str">
+        <v>https://www.xiaohongshu.com/explore/675fb9070000000002034413?xsec_token=AB2LG44YbduDowe79MFQuDkiiV-m3H4AMvhT0hELmwnF4=&amp;xsec_source=</v>
+      </c>
+      <c r="G25" t="str">
+        <v>今年年底已经跑路了几家装修装修公司了！！！姐妹们，研选家是不是跑路了。 装房子装了一年。 现在叫水电师傅，来装灯。 结果水电师傅，告诉我工资没发。牛逼，号称万科旗下装修的牛逼装修公司。 居然也会拖欠工人工资。然后工人因为拿不到工资，不干活。太难了，水电大哥。 有线人吗？，姐妹们，不对，供应商们， 万科有拖欠工程款，货款吗？ 工人师傅们，你们还能过好年吗？ 这年头还真是人渣不分男女，要套现跑路，跟什么公司，什么品牌都没半毛钱关系，要跑一样跑。 万科的业主们，看到研选家快跑！！！！ #装修公司跑路了 #装修公司跑路 #万科 #武汉万科 #研选家 #装修工人跑路 #装修日常 #装修 #装修日记</v>
+      </c>
+      <c r="H25" t="str">
+        <v>https://sns-webpic-qc.xhscdn.com/202502231956/85ef761966b02e8b799fa071798d4528/1040g2sg31bf5ij6jnae05p5de1i7ol1hgds4cjg!nd_dft_wlteh_webp_3</v>
+      </c>
+      <c r="I25" t="str">
+        <v>共 18 条评论闲人谋事曾经我认准万科这个品牌，出于信任，我新家装修选择万科研选家，结果全屋定制做的全部都是打补丁，质量完全不过关，交付的产品都有缺漏，对处理问题态度冷暴力，踢皮球，我和家人流着眼泪在年三十面对破烂的烂尾交付过的这个年！问题反馈了十五天，万科研选家没有一个相关领导实地调查更谈不上解决问题的方案了！因为我们是老实人，就这样霸王式的和冷暴力我们消费者！我们被逼申诉无门！万科集团有担当的领导，你们不能这样欺负老百姓呀！02-12广东110线条小狗作者枯死，姐妹02-12湖北赞回复展开 9 条回复奶爸做家装哈哈，蛮多小区看到这个挂羊头卖狗肉的，跑了吗？2024-12-1613线条小狗作者钱都发不出来！！你说2024-12-16赞回复展开 2 条回复 （~㉨~） 你装修是一次性付全款还是分期款，你要是油工做完退场了还是没有结清尾款，水电工肯定不会给你装灯的，你这是公司装的还是个人装的？4 天前湖北赞1线条小狗作者这么说，公司只压水电工的钱，那水电工岂不是狗都不做4 天前湖北赞回复正先 律师事务所「装修增项和全屋定制都是坑！新式马扁.，动不动就让你付这个付那个，威胁不开工不售后，有踩坑糟心的找我，帮你退款，需要的戳dd！」02-15广东1回复 - THE END -</v>
+      </c>
+      <c r="J25" t="str">
+        <v>中性</v>
+      </c>
+      <c r="K25" t="str">
+        <v>分析过程出错，默认返回中性评价</v>
+      </c>
+      <c r="L25" t="str">
+        <v>没有找到关键词</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>研选家，我值得。</v>
+      </c>
+      <c r="B26" t="str">
+        <v>小鱼儿儿儿儿</v>
+      </c>
+      <c r="C26" t="str">
+        <v>编辑于 2024-02-26</v>
+      </c>
+      <c r="D26" t="str">
+        <v>未知</v>
+      </c>
+      <c r="E26" t="str">
+        <v>未知</v>
+      </c>
+      <c r="F26" t="str">
+        <v>https://www.xiaohongshu.com/explore/65d9bf6f000000000b00f250?xsec_token=ABdC2UsAepTevRd_wYuOGKsc-uwMJkd-XTnz4cA1D4G1w=&amp;xsec_source=</v>
+      </c>
+      <c r="G26" t="str">
+        <v>关于装修方面我对卫生间有以下建议： 1、卫生间的任何五金配件都尽量选择品牌的，这样能确保它不易生锈或者损耗。此外需要提醒一下，卫研选就是卫生间的地漏一定要防臭的，这与以后的居家舒适度密切相关。 2、不泡澡的话，就别在卫生间里装浴缸。且不说它占位置，对于大部分家庭来说，浴缸的宿命最后都是摆放在那里积灰尘，甚至是沦为杂物收纳区。 3、有条件的话，卫生间必须要做干湿分离。如果实在太小，就利用浴帘把卫生间分区。干湿不分离的话，不仅容易摔跤滑倒，卫生间的家具使用寿命也会大大缩短，很多卫浴用品很容易就会发霉，到处脏兮兮的。 4、记得在卫生间洗漱台和马桶边安装插座。这是为了日后方便安装智能镜柜和智能马桶而设的，毕竟是智能家居时代了嘛！ 5、卫生间在装修时，防水工程要做好，防水材料的品质也一定要好，这样才能永绝后患。地面铺贴瓷砖的时候，记得要留有坡度，这样才能确保卫生间的积水可以及时排入下水口，不向卫生间外流淌。 以上有些知识点借鉴了研选家的笔记，研选家是一家可以对老房进行装修升级改造的公司，专业安心，身边有不少朋友选择了研选家改造老房，效果还是很不错的。 #研选家家装好安心#研选家 #装修日记</v>
+      </c>
+      <c r="H26" t="str">
+        <v>https://sns-webpic-qc.xhscdn.com/202502231956/80d9f742c34be4dde6e043dbc6b4828b/1040g2sg30vl371vtm6505ouvq3opiekveste1t8!nd_dft_wgth_webp_3</v>
+      </c>
+      <c r="I26" t="str">
+        <v>这是一片荒地点击评论</v>
+      </c>
+      <c r="J26" t="str">
+        <v>中性</v>
+      </c>
+      <c r="K26" t="str">
+        <v>分析过程出错，默认返回中性评价</v>
+      </c>
+      <c r="L26" t="str">
+        <v>没有找到关键词</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>🎁宠粉抽奖｜猫王小王子OTR新年礼盒🎁</v>
+      </c>
+      <c r="B27" t="str">
+        <v>研选家</v>
+      </c>
+      <c r="C27" t="str">
+        <v>编辑于 02-02 广东</v>
+      </c>
+      <c r="D27" t="str">
+        <v>广东</v>
+      </c>
+      <c r="E27" t="str">
+        <v>广东</v>
+      </c>
+      <c r="F27" t="str">
+        <v>https://www.xiaohongshu.com/explore/679f7d7e000000002901f579?xsec_token=ABbSo12Qe7vFXBzMYCPrIwgqyqNfH-LM4MHUSE0NAt_0Q=&amp;xsec_source=</v>
+      </c>
+      <c r="G27" t="str">
+        <v>2025🍎，巳巳顺意，家家安康！ 希望新的一年，小研的家人们可以纵情高歌，所向披靡！更希望我们的祖国家家欢声笑语！🎊😁🥰 所以！新年第一次抽奖，小研要送出火红喜庆的【猫王音响小王子OTR+欢唱版双麦克风话话筒礼盒】🎙🎁，大家唱起来吧❗️ 🔥猫王新年特定礼盒内含： 复古格调音箱 精巧双麦克风 高级手提礼箱 🖐快来动动手指按下参与抽奖！ 📝参与方式：点击图片下方限时抽奖（+4️⃣） ⏰活动时间：2月2日-2月28日 🎉开奖时间：2月28日15:00😉 🀄了的宝子记得要在7天内填写收货信息哟～ 赶紧上车，不要开小差。 ⭐️ps：新的一年每月宠粉持续进行中，板凳坐好，更多惊喜来袭！ #宠粉福利 #抽奖 #0元抽奖 #粉丝福利 #音响 #猫王音响 @薯队长 @装修薯 #新年云祈愿 #新年礼物</v>
+      </c>
+      <c r="H27" t="str">
+        <v>https://sns-webpic-qc.xhscdn.com/202502231957/6ee6bd90686078cd91b46a506b5642d8/1040g00831ddea11dgm6g5o398rr0bno9bp84rf0!nd_dft_wlteh_webp_3</v>
+      </c>
+      <c r="I27" t="str">
+        <v>共 342 条评论🍁昨天 18:48山东赞回复三点钟叫醒兔子1112 天前上海赞回复罐头的朋友圈2025发发发呀2 天前浙江赞回复-小羽时光一键4连 ，一键四连接接接！！！💰来(永久效有，无作副用）→💰来永有久效，无作副用）→💰来💰来（永久效有，无副作用）→感宇谢宙！谢感政f！感谢我信相我会变好，众生安乐！！！！！泼天的富贵 我来了 请宠幸我一次吧[ 飞吻R ]㊗希望好运连连可以揪中我！幸运之神宠我一次吧！希望锦鲤就是我🍀！㊙默念咒语:希望被揪🀄！希望被揪🀄！希望被揪🀄！（重要的事情说三遍）疯狂举手中~🙏拜托🙏快点看过来看看我这边′2 天前广东赞回复-小羽时光好运连连2 天前广东赞回复Mr．lateヾ我来啦 一键4连 ，一键四连接接接！！！💰来(永久效有，无作副用）→💰来永有久效，无作副用）→💰来💰来（永久效有，无副作用）→感宇谢宙！谢感政f！感谢我信相我会变好，众生安乐！！！！！泼天的富贵 我来了 请宠幸我一次吧㊗希望好运连连可以揪中我！幸运之神宠我一次吧！希望锦鲤就是我🍀！㊙默念咒语:希望被揪🀄！希望被揪🀄！希望被揪🀄！（重要的事情说三遍）疯狂举手中~🙏拜托🙏快点看过来看看我这3 天前广东赞回复桜桜我来啦 # 一键4连 ，一键四连接接接！！！💰来(永久效有，无作副用）→💰来永有久效，无作副用）→💰来💰来（永久效有，无副作用）→感宇谢宙！谢感政f！感谢我信相我会变好，众生安乐！！！！！泼天的富贵 我来了 请宠幸我一次吧㊗希望好运连连可以揪中我！幸运之神宠我一次吧！希望锦鲤就是我🍀！㊙默念咒语:希望被揪🀄！希望被揪🀄！希望被揪🀄！（重要的事情说三遍）疯狂举手中~🙏拜托🙏快点看过来看看我3 天前广东赞回复一个名字一键4连 ，一键四连接接接！！！💰来(永久效有，无作副用）→💰来永有久效，无作副用）→💰来💰来（永久效有，无副作用）→感宇谢宙！谢感政f！感谢我信相我会变好，众生安乐！！！！！泼天的富贵 我来了 请宠幸我一次吧[ 飞吻R ]㊗希望好运连连可以揪中我！幸运之神宠我一次吧！希望锦鲤就是我🍀！㊙默念咒语:希望被揪🀄！希望被揪🀄！希望被揪🀄！（重要的事情说三遍）疯狂举手中~🙏拜托🙏快点看过来看看我这边4 天前辽宁赞回复苹果的滋味已四连4 天前广西赞回复初音小贝蹲蹲好运5 天前广东赞回复</v>
+      </c>
+      <c r="J27" t="str">
+        <v>中性</v>
+      </c>
+      <c r="K27" t="str">
+        <v>分析过程出错，默认返回中性评价</v>
+      </c>
+      <c r="L27" t="str">
+        <v>没有找到关键词</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>活动</v>
+      </c>
+      <c r="B28" t="str">
+        <v>jam</v>
+      </c>
+      <c r="C28" t="str">
+        <v>今天 10:09 广东</v>
+      </c>
+      <c r="D28" t="str">
+        <v>广东</v>
+      </c>
+      <c r="E28" t="str">
+        <v>广东</v>
+      </c>
+      <c r="F28" t="str">
+        <v>https://www.xiaohongshu.com/explore/67ba834e000000001201d4ce?xsec_token=AB-wJJN6qTk2kyPtjT5DWOPJLP1LR0EMRqugsGeCcnzlQ=&amp;xsec_source=</v>
+      </c>
+      <c r="G28" t="str">
+        <v>万物研选家装修怎么样 #不懂就问有问必答 #万能的小红书</v>
+      </c>
+      <c r="H28" t="str">
+        <v>https://sns-webpic-qc.xhscdn.com/202502231957/e9ada289f56cc6ee90d4a07fbdc15624/1040g2sg31e7qoo5th0dg5nqil7d0br53sb7epbg!nd_dft_wlteh_webp_3</v>
+      </c>
+      <c r="I28" t="str">
+        <v>共 2 条评论佛山壹伴装饰(实体大门店)你好以看看我们家哦 设计装修一站式，我们公司只专注广州佛山同城装修，我们保证0️⃣增项，施工队也是自己家的 不像其他公司外包给别人做，施工队都是八到十年的经验丰富的老师傅，设计师也也是资深年轻设计师，更懂得您的需求，我们有四层大楼实体大门店！更加靠谱！如果您有意向的话可以回复一下我哟今天 10:33广东赞回复超大只胖虎🐱万科的？今天 10:49广西赞回复 - THE END -</v>
+      </c>
+      <c r="J28" t="str">
+        <v>中性</v>
+      </c>
+      <c r="K28" t="str">
+        <v>分析过程出错，默认返回中性评价</v>
+      </c>
+      <c r="L28" t="str">
+        <v>没有找到关键词</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L28"/>
   </ignoredErrors>
 </worksheet>
 </file>